--- a/Underwater_Robot_NFC/bin/Release/underwater_robot_balance.xlsx
+++ b/Underwater_Robot_NFC/bin/Release/underwater_robot_balance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\robotics_team\underwater_nfc\Underwater_Robot_NFC\Underwater_Robot_NFC\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\robotics_team\underwater_nfc\Underwater_Robot_NFC\Underwater_Robot_NFC\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No.1</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>No.14</t>
+  </si>
+  <si>
+    <t>No.15</t>
+  </si>
+  <si>
+    <t>No.16</t>
+  </si>
+  <si>
+    <t>No.17</t>
+  </si>
+  <si>
+    <t>No.18</t>
   </si>
 </sst>
 </file>
@@ -135,6 +147,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-HK"/>
+              <a:t>Team Balance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -186,9 +223,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$14</c:f>
+              <c:f>Sheet1!$A$1:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>No.1</c:v>
                 </c:pt>
@@ -230,30 +267,42 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>No.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>No.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>No.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>No.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>No.18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$14</c:f>
+              <c:f>Sheet1!$B$1:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>340</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>495</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>500</c:v>
@@ -268,18 +317,30 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>455</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -300,7 +361,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1309313120"/>
         <c:axId val="1303869728"/>
       </c:barChart>
@@ -1003,16 +1063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1337,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>390</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>340</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>455</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>244</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,6 +1514,38 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>500</v>
       </c>
     </row>

--- a/Underwater_Robot_NFC/bin/Release/underwater_robot_balance.xlsx
+++ b/Underwater_Robot_NFC/bin/Release/underwater_robot_balance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\robotics_team\underwater_nfc\Underwater_Robot_NFC\Underwater_Robot_NFC\bin\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcreng\git\Underwater_Robot_NFC\Underwater_Robot_NFC\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,13 +323,13 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>490</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>495</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>500</c:v>
@@ -1396,11 +1396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
